--- a/fluxo_de_caixa.xlsx
+++ b/fluxo_de_caixa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="237">
   <si>
     <t>Conta</t>
   </si>
@@ -28,12 +28,6 @@
     <t>1.01.001</t>
   </si>
   <si>
-    <t xml:space="preserve">1.11.002 </t>
-  </si>
-  <si>
-    <t>1.11.005</t>
-  </si>
-  <si>
     <t>1.13.001</t>
   </si>
   <si>
@@ -49,6 +43,9 @@
     <t>1.14.001</t>
   </si>
   <si>
+    <t>1.14.004</t>
+  </si>
+  <si>
     <t>1.14.005</t>
   </si>
   <si>
@@ -79,7 +76,7 @@
     <t>1.22.001</t>
   </si>
   <si>
-    <t xml:space="preserve">1.22.001 </t>
+    <t>1.22.002</t>
   </si>
   <si>
     <t>1.22.003</t>
@@ -91,22 +88,40 @@
     <t>1.24.001</t>
   </si>
   <si>
+    <t>1.24.006</t>
+  </si>
+  <si>
     <t>1.25.001</t>
   </si>
   <si>
-    <t>1.25.002</t>
-  </si>
-  <si>
     <t>1.25.003</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25.003 </t>
+    <t>1.25.004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25.004 </t>
+  </si>
+  <si>
+    <t>1.25.006</t>
+  </si>
+  <si>
+    <t>1.25.007</t>
+  </si>
+  <si>
+    <t>1.25.008</t>
   </si>
   <si>
     <t>1.25.010</t>
   </si>
   <si>
-    <t>1.25.023</t>
+    <t>1.25.015</t>
+  </si>
+  <si>
+    <t>1.25.016</t>
+  </si>
+  <si>
+    <t>1.25.021</t>
   </si>
   <si>
     <t>1.26.001</t>
@@ -115,15 +130,12 @@
     <t>1.26.002</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26.003 </t>
+    <t>1.27.001</t>
   </si>
   <si>
     <t>1.27.002</t>
   </si>
   <si>
-    <t>1.28.002</t>
-  </si>
-  <si>
     <t>1.30.001</t>
   </si>
   <si>
@@ -133,6 +145,12 @@
     <t xml:space="preserve">2.01.002 </t>
   </si>
   <si>
+    <t xml:space="preserve">2.01.003 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.01.004 </t>
+  </si>
+  <si>
     <t xml:space="preserve">2.01.005 </t>
   </si>
   <si>
@@ -178,10 +196,10 @@
     <t xml:space="preserve">2.02.302 </t>
   </si>
   <si>
-    <t xml:space="preserve">2.02.303 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.02.604 </t>
+    <t xml:space="preserve">2.02.602 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02.603 </t>
   </si>
   <si>
     <t xml:space="preserve">2.02.610 </t>
@@ -196,6 +214,9 @@
     <t xml:space="preserve">2.03.004 </t>
   </si>
   <si>
+    <t xml:space="preserve">2.03.006 </t>
+  </si>
+  <si>
     <t xml:space="preserve">2.03.007 </t>
   </si>
   <si>
@@ -208,9 +229,6 @@
     <t xml:space="preserve">2.03.012 </t>
   </si>
   <si>
-    <t xml:space="preserve">2.03.015 </t>
-  </si>
-  <si>
     <t xml:space="preserve">2.03.016 </t>
   </si>
   <si>
@@ -223,6 +241,9 @@
     <t xml:space="preserve">2.03.022 </t>
   </si>
   <si>
+    <t xml:space="preserve">2.03.023 </t>
+  </si>
+  <si>
     <t xml:space="preserve">2.03.024 </t>
   </si>
   <si>
@@ -244,6 +265,9 @@
     <t xml:space="preserve">2.03.032 </t>
   </si>
   <si>
+    <t xml:space="preserve">2.03.033 </t>
+  </si>
+  <si>
     <t xml:space="preserve">2.04.001 </t>
   </si>
   <si>
@@ -262,15 +286,15 @@
     <t xml:space="preserve">2.04.010 </t>
   </si>
   <si>
-    <t xml:space="preserve">2.04.012 </t>
-  </si>
-  <si>
     <t xml:space="preserve">2.04.019 </t>
   </si>
   <si>
     <t xml:space="preserve">2.04.020 </t>
   </si>
   <si>
+    <t xml:space="preserve">2.04.023 </t>
+  </si>
+  <si>
     <t xml:space="preserve">2.04.024 </t>
   </si>
   <si>
@@ -310,49 +334,34 @@
     <t xml:space="preserve">2.12.304 </t>
   </si>
   <si>
-    <t xml:space="preserve">2.14.001 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14.002 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14.003 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.14.004 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.002 </t>
-  </si>
-  <si>
     <t xml:space="preserve">2.17.001 </t>
   </si>
   <si>
     <t xml:space="preserve">2.20.001 </t>
   </si>
   <si>
-    <t xml:space="preserve">2.20.002 </t>
-  </si>
-  <si>
     <t xml:space="preserve">2.30.101 </t>
   </si>
   <si>
     <t xml:space="preserve">2.30.102 </t>
   </si>
   <si>
-    <t xml:space="preserve">2.30.401 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30.600 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30.601 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31.102 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31.300 </t>
+    <t>2.30.204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30.300 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30.301 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30.701 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31.200 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31.303 </t>
   </si>
   <si>
     <t xml:space="preserve">2.40.001 </t>
@@ -364,18 +373,15 @@
     <t xml:space="preserve">2.40.003 </t>
   </si>
   <si>
+    <t xml:space="preserve">2.40.005 </t>
+  </si>
+  <si>
     <t xml:space="preserve">2.40.006 </t>
   </si>
   <si>
     <t>Mensalidade</t>
   </si>
   <si>
-    <t>Matrícula Inf 1 e 2</t>
-  </si>
-  <si>
-    <t>Mens. Integral 10h- Infan. 1 e 2</t>
-  </si>
-  <si>
     <t>Mensalidade Fund 1</t>
   </si>
   <si>
@@ -391,6 +397,9 @@
     <t>Mensalidade Fund 2</t>
   </si>
   <si>
+    <t>Matrícula Infantil - Isaac</t>
+  </si>
+  <si>
     <t>Mensalidade Infantil - Isaac</t>
   </si>
   <si>
@@ -421,6 +430,9 @@
     <t>Apostilas Anglo e complementares</t>
   </si>
   <si>
+    <t>Cópias para tarefas/trabalho</t>
+  </si>
+  <si>
     <t>Avaliação substitutiva</t>
   </si>
   <si>
@@ -430,19 +442,37 @@
     <t>Revenda de lanches</t>
   </si>
   <si>
+    <t>Revenda Estante Mágica</t>
+  </si>
+  <si>
     <t>Lembrancinha dia das mães</t>
   </si>
   <si>
-    <t>Lembrancinha dia dos pais</t>
-  </si>
-  <si>
     <t>Passeios</t>
   </si>
   <si>
+    <t>Ingresso Festa Junina</t>
+  </si>
+  <si>
+    <t>Prenda Festa Junina</t>
+  </si>
+  <si>
+    <t>Cartela/Princ. Festa Junina</t>
+  </si>
+  <si>
+    <t>Bingo Festa Junina</t>
+  </si>
+  <si>
     <t>Formatura</t>
   </si>
   <si>
-    <t>Brinde rematricula</t>
+    <t>Transporte Acampamento</t>
+  </si>
+  <si>
+    <t>Mostra de Dança</t>
+  </si>
+  <si>
+    <t>Mostra Cultural</t>
   </si>
   <si>
     <t>Multas a receber</t>
@@ -451,15 +481,12 @@
     <t>Juros a receber</t>
   </si>
   <si>
-    <t>2ª via Vale Alimentação</t>
+    <t>Empréstimo recebido</t>
   </si>
   <si>
     <t>Rendimentos e aplicações</t>
   </si>
   <si>
-    <t>Venda de materiais/móveis usados</t>
-  </si>
-  <si>
     <t>Acordo mensalidade</t>
   </si>
   <si>
@@ -469,6 +496,12 @@
     <t>Água unidade 2</t>
   </si>
   <si>
+    <t>Água unidade 3</t>
+  </si>
+  <si>
+    <t>Luz unidade 1</t>
+  </si>
+  <si>
     <t>Luz unidade 2</t>
   </si>
   <si>
@@ -511,10 +544,10 @@
     <t>Material de limpeza e higiene</t>
   </si>
   <si>
-    <t>Materiais de informática</t>
-  </si>
-  <si>
-    <t>Farmácia</t>
+    <t>Gasolina e estacionamento</t>
+  </si>
+  <si>
+    <t>Lanches e refeições</t>
   </si>
   <si>
     <t>Sieeesp</t>
@@ -529,6 +562,9 @@
     <t>Serviço de aulas de música</t>
   </si>
   <si>
+    <t>Outros serviços</t>
+  </si>
+  <si>
     <t>Serviço Arteterapia</t>
   </si>
   <si>
@@ -541,9 +577,6 @@
     <t>Serviços de consulta PF e PJ</t>
   </si>
   <si>
-    <t>Serviço de marcenaria</t>
-  </si>
-  <si>
     <t>Serviço propaganda e publicidade</t>
   </si>
   <si>
@@ -556,6 +589,9 @@
     <t>Serviço agenda eletrônica</t>
   </si>
   <si>
+    <t>Serviço de aulas de inglês e esp</t>
+  </si>
+  <si>
     <t>Serviços gráficos (copiadoras)</t>
   </si>
   <si>
@@ -577,6 +613,9 @@
     <t>Serviços de contrato digital</t>
   </si>
   <si>
+    <t>Serviços de Karatê</t>
+  </si>
+  <si>
     <t>Salários professores</t>
   </si>
   <si>
@@ -595,15 +634,15 @@
     <t>Darf 561</t>
   </si>
   <si>
-    <t>13º Salário</t>
-  </si>
-  <si>
     <t>Rescisão funcionário</t>
   </si>
   <si>
     <t>Sinpro</t>
   </si>
   <si>
+    <t>Seguro funcionários</t>
+  </si>
+  <si>
     <t>Vale transporte</t>
   </si>
   <si>
@@ -643,49 +682,34 @@
     <t>ISS s/ PJ</t>
   </si>
   <si>
-    <t>Despesa c/ Seguro predial uni. 3</t>
-  </si>
-  <si>
-    <t>Despesa c/ Seguro predial uni. 1</t>
-  </si>
-  <si>
-    <t>Despesa c/ Seguro predial uni. 2</t>
-  </si>
-  <si>
-    <t>Despesa c/ Seguro educacional</t>
-  </si>
-  <si>
-    <t>Rematrícula custo com brindes</t>
-  </si>
-  <si>
     <t>Despesas sócias</t>
   </si>
   <si>
     <t>Lanches para revenda</t>
   </si>
   <si>
-    <t>Sucos para revenda</t>
-  </si>
-  <si>
     <t>Formatura - Infantil 4</t>
   </si>
   <si>
     <t>Formatura 9ª ano</t>
   </si>
   <si>
-    <t>Custo diversos Olimpiada</t>
-  </si>
-  <si>
-    <t>PASSEIOS</t>
-  </si>
-  <si>
-    <t>Passeios diversos</t>
-  </si>
-  <si>
-    <t>Brindes e presentes</t>
-  </si>
-  <si>
-    <t>EVENTOS PEDAGÓGICOS</t>
+    <t>Teatro Mostra de Dança</t>
+  </si>
+  <si>
+    <t>FESTA JUNINA</t>
+  </si>
+  <si>
+    <t>Custos diversos festa junina</t>
+  </si>
+  <si>
+    <t>Custo Dia das Mães</t>
+  </si>
+  <si>
+    <t>REPASSE EVENTO 3º</t>
+  </si>
+  <si>
+    <t>Dia do autógrafo</t>
   </si>
   <si>
     <t>Sophia - Sistema de Gestão</t>
@@ -695,6 +719,9 @@
   </si>
   <si>
     <t>Imóvel Aquisição/Construção/Refo</t>
+  </si>
+  <si>
+    <t>Empréstimo a pagar</t>
   </si>
   <si>
     <t>Máquinas e equipamentos</t>
@@ -1055,7 +1082,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:C119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1077,10 +1104,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C2">
-        <v>1323.68</v>
+        <v>534.49</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1088,10 +1115,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C3">
-        <v>1350</v>
+        <v>3795.2576</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1099,10 +1126,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C4">
-        <v>500</v>
+        <v>141.4324</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1110,10 +1137,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C5">
-        <v>4004.7876</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1121,10 +1148,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C6">
-        <v>141.4324</v>
+        <v>302.04</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1132,10 +1159,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C7">
-        <v>19.8</v>
+        <v>3233.58</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1143,10 +1170,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C8">
-        <v>362.04</v>
+        <v>859.5</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1154,10 +1181,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C9">
-        <v>2301.63</v>
+        <v>64538.59</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1165,10 +1192,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C10">
-        <v>61098.89999999999</v>
+        <v>84944.27</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1176,10 +1203,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C11">
-        <v>3230.43</v>
+        <v>127416.4</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1187,10 +1214,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C12">
-        <v>210741.94</v>
+        <v>1681.73</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1198,10 +1225,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C13">
-        <v>1758.46</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1209,10 +1236,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C14">
-        <v>5240</v>
+        <v>1211.25</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1220,10 +1247,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C15">
-        <v>593.75</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1231,10 +1258,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C16">
-        <v>200</v>
+        <v>2569.33</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1242,10 +1269,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C17">
-        <v>2929.33</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1253,10 +1280,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C18">
-        <v>570</v>
+        <v>50922.79</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1264,10 +1291,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C19">
-        <v>63147.09</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1275,10 +1302,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C20">
-        <v>327.97</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1286,10 +1313,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C21">
-        <v>450</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1297,10 +1324,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C22">
-        <v>11.04</v>
+        <v>5003.5</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1308,10 +1335,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C23">
-        <v>1207.3</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1319,10 +1346,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C24">
-        <v>295</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1330,10 +1357,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C25">
-        <v>75</v>
+        <v>6153.2</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1341,10 +1368,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C26">
-        <v>6940.45</v>
+        <v>15982.54</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1352,10 +1379,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C27">
-        <v>63</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1363,10 +1390,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C28">
-        <v>6008.2</v>
+        <v>600</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1374,10 +1401,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C29">
-        <v>45</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1385,10 +1412,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C30">
-        <v>378.9</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1396,10 +1423,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C31">
-        <v>4208.080000000001</v>
+        <v>4777.4</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1407,10 +1434,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C32">
-        <v>171.72</v>
+        <v>422</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1418,10 +1445,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C33">
-        <v>1.35</v>
+        <v>770</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1429,10 +1456,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C34">
-        <v>159.98</v>
+        <v>755</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1440,10 +1467,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C35">
-        <v>5720.53</v>
+        <v>723.5599999999999</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1451,10 +1478,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C36">
-        <v>1544.9</v>
+        <v>2066.74</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1462,10 +1489,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C37">
-        <v>801.3099999999999</v>
+        <v>4151.559999999999</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1473,10 +1500,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C38">
-        <v>691.13</v>
+        <v>7.21</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1484,10 +1511,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C39">
-        <v>1023.64</v>
+        <v>1143.44</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1495,10 +1522,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C40">
-        <v>304.49</v>
+        <v>609.03</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1506,10 +1533,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C41">
-        <v>600.65</v>
+        <v>304.51</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1517,10 +1544,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C42">
-        <v>1411.88</v>
+        <v>2889.59</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1528,10 +1555,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C43">
-        <v>259.98</v>
+        <v>1532.7</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1539,10 +1566,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C44">
-        <v>414.05</v>
+        <v>766.29</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1550,10 +1577,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C45">
-        <v>200.99</v>
+        <v>604.54</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1561,10 +1588,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C46">
-        <v>136.9</v>
+        <v>304.49</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1572,10 +1599,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="C47">
-        <v>40579.22</v>
+        <v>591.55</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1583,10 +1610,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C48">
-        <v>3901.19</v>
+        <v>4519.29</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1594,10 +1621,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C49">
-        <v>2689.15</v>
+        <v>275.44</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1605,10 +1632,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C50">
-        <v>2539.17</v>
+        <v>417.58</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1616,10 +1643,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C51">
-        <v>553.49</v>
+        <v>210.54</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1627,10 +1654,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C52">
-        <v>1523.3</v>
+        <v>136.9</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1638,10 +1665,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="C53">
-        <v>80</v>
+        <v>47280.2</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1649,10 +1676,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C54">
-        <v>93.79000000000001</v>
+        <v>1717.62</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1660,10 +1687,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C55">
-        <v>759</v>
+        <v>1406.51</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1671,10 +1698,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C56">
-        <v>356.76</v>
+        <v>1409.49</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1682,10 +1709,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C57">
-        <v>182.39</v>
+        <v>498.15</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1693,10 +1720,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C58">
-        <v>900</v>
+        <v>5543.74</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1704,10 +1731,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C59">
-        <v>1769.17</v>
+        <v>47.81</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1715,10 +1742,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C60">
-        <v>3154</v>
+        <v>58.34</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1726,10 +1753,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C61">
-        <v>2046</v>
+        <v>759</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1737,10 +1764,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C62">
-        <v>474.99</v>
+        <v>353.18</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1748,10 +1775,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C63">
-        <v>1500</v>
+        <v>182.39</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1759,10 +1786,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C64">
-        <v>1848.5</v>
+        <v>900</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1770,10 +1797,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C65">
-        <v>80</v>
+        <v>350</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1781,10 +1808,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C66">
-        <v>729</v>
+        <v>1978.74</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1792,10 +1819,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C67">
-        <v>338.4</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1803,10 +1830,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C68">
-        <v>3835.95</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1814,10 +1841,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C69">
-        <v>6906.06</v>
+        <v>474.99</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1825,10 +1852,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C70">
-        <v>2667.75</v>
+        <v>2996.89</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1836,10 +1863,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C71">
-        <v>1376.17</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1847,10 +1874,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C72">
-        <v>5434.9</v>
+        <v>799</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1858,10 +1885,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C73">
-        <v>2290</v>
+        <v>352.8</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1869,10 +1896,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C74">
-        <v>113.92</v>
+        <v>3239.36</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1880,10 +1907,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C75">
-        <v>62863.3</v>
+        <v>4435.83</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1891,10 +1918,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C76">
-        <v>54430.96</v>
+        <v>6998.71</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1902,10 +1929,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C77">
-        <v>7915.56</v>
+        <v>2667.25</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1913,10 +1940,10 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>1636.46</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1924,10 +1951,10 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C79">
-        <v>2807.26</v>
+        <v>6862.17</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1935,10 +1962,10 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C80">
-        <v>17007.72</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1946,10 +1973,10 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C81">
-        <v>2608.64</v>
+        <v>111.92</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1957,10 +1984,10 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C82">
-        <v>231</v>
+        <v>407.25</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1968,10 +1995,10 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C83">
-        <v>343.74</v>
+        <v>70649.50999999999</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1979,10 +2006,10 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C84">
-        <v>634.28</v>
+        <v>60473.39</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1990,10 +2017,10 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C85">
-        <v>7383.96</v>
+        <v>9217.23</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2001,10 +2028,10 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C86">
-        <v>1671.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2012,10 +2039,10 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C87">
-        <v>8997</v>
+        <v>3213.32</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2023,10 +2050,10 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C88">
-        <v>50</v>
+        <v>21133.46</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2034,10 +2061,10 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C89">
-        <v>372.81</v>
+        <v>4730.059999999999</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2045,10 +2072,10 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C90">
-        <v>394.74</v>
+        <v>392.91</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2056,10 +2083,10 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C91">
-        <v>575.7</v>
+        <v>302.95</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2067,10 +2094,10 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C92">
-        <v>2035.67</v>
+        <v>736.87</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2078,10 +2105,10 @@
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C93">
-        <v>2603.42</v>
+        <v>8736.940000000001</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2089,10 +2116,10 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C94">
-        <v>28678.92</v>
+        <v>517.03</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2100,10 +2127,10 @@
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C95">
-        <v>109.33</v>
+        <v>12012.81</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2111,10 +2138,10 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C96">
-        <v>10.78</v>
+        <v>70.29000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2122,10 +2149,10 @@
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C97">
-        <v>509.36</v>
+        <v>308.26</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2133,10 +2160,10 @@
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C98">
-        <v>456.49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2144,10 +2171,10 @@
         <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C99">
-        <v>415.26</v>
+        <v>575.7</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2155,10 +2182,10 @@
         <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C100">
-        <v>714.84</v>
+        <v>2035.67</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2166,10 +2193,10 @@
         <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C101">
-        <v>1793.5</v>
+        <v>2603.42</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2177,10 +2204,10 @@
         <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C102">
-        <v>19313</v>
+        <v>29042.81</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2188,10 +2215,10 @@
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C103">
-        <v>1078</v>
+        <v>240.82</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2199,10 +2226,10 @@
         <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C104">
-        <v>613.2</v>
+        <v>10.92</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2210,10 +2237,10 @@
         <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C105">
-        <v>1225</v>
+        <v>20778</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2221,10 +2248,10 @@
         <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C106">
-        <v>2725</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2232,10 +2259,10 @@
         <v>108</v>
       </c>
       <c r="B107" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C107">
-        <v>560</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2243,10 +2270,10 @@
         <v>109</v>
       </c>
       <c r="B108" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C108">
-        <v>160</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2254,10 +2281,10 @@
         <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C109">
-        <v>1440</v>
+        <v>150</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2265,10 +2292,10 @@
         <v>111</v>
       </c>
       <c r="B110" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C110">
-        <v>64.28</v>
+        <v>11697</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2276,10 +2303,10 @@
         <v>112</v>
       </c>
       <c r="B111" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C111">
-        <v>2380.28</v>
+        <v>4150.440000000001</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2287,10 +2314,10 @@
         <v>113</v>
       </c>
       <c r="B112" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C112">
-        <v>1623.09</v>
+        <v>1546.25</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2298,10 +2325,10 @@
         <v>114</v>
       </c>
       <c r="B113" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C113">
-        <v>2720.88</v>
+        <v>348.8</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2309,10 +2336,10 @@
         <v>115</v>
       </c>
       <c r="B114" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C114">
-        <v>6685.82</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2320,10 +2347,54 @@
         <v>116</v>
       </c>
       <c r="B115" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C115">
-        <v>4817.309999999999</v>
+        <v>1623.09</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116" t="s">
+        <v>233</v>
+      </c>
+      <c r="C116">
+        <v>3485.15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" t="s">
+        <v>234</v>
+      </c>
+      <c r="C117">
+        <v>6685.83</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" t="s">
+        <v>235</v>
+      </c>
+      <c r="C118">
+        <v>3151.56</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" t="s">
+        <v>236</v>
+      </c>
+      <c r="C119">
+        <v>8291.389999999999</v>
       </c>
     </row>
   </sheetData>

--- a/fluxo_de_caixa.xlsx
+++ b/fluxo_de_caixa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="242">
   <si>
     <t>Conta</t>
   </si>
@@ -28,6 +28,12 @@
     <t>1.01.001</t>
   </si>
   <si>
+    <t>1.12.001</t>
+  </si>
+  <si>
+    <t>1.12.005</t>
+  </si>
+  <si>
     <t>1.13.001</t>
   </si>
   <si>
@@ -43,6 +49,9 @@
     <t>1.14.001</t>
   </si>
   <si>
+    <t>1.14.002</t>
+  </si>
+  <si>
     <t>1.14.004</t>
   </si>
   <si>
@@ -58,15 +67,9 @@
     <t>1.21.001</t>
   </si>
   <si>
-    <t>1.21.004</t>
-  </si>
-  <si>
     <t>1.21.005</t>
   </si>
   <si>
-    <t>1.21.008</t>
-  </si>
-  <si>
     <t>1.21.009</t>
   </si>
   <si>
@@ -76,52 +79,43 @@
     <t>1.22.001</t>
   </si>
   <si>
-    <t>1.22.002</t>
-  </si>
-  <si>
     <t>1.22.003</t>
   </si>
   <si>
     <t>1.22.006</t>
   </si>
   <si>
+    <t>1.23.005</t>
+  </si>
+  <si>
     <t>1.24.001</t>
   </si>
   <si>
-    <t>1.24.006</t>
-  </si>
-  <si>
-    <t>1.25.001</t>
+    <t>1.24.007</t>
   </si>
   <si>
     <t>1.25.003</t>
   </si>
   <si>
-    <t>1.25.004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.25.004 </t>
-  </si>
-  <si>
-    <t>1.25.006</t>
-  </si>
-  <si>
-    <t>1.25.007</t>
-  </si>
-  <si>
-    <t>1.25.008</t>
-  </si>
-  <si>
     <t>1.25.010</t>
   </si>
   <si>
+    <t>1.25.011</t>
+  </si>
+  <si>
+    <t>1.25.012</t>
+  </si>
+  <si>
     <t>1.25.015</t>
   </si>
   <si>
     <t>1.25.016</t>
   </si>
   <si>
-    <t>1.25.021</t>
+    <t>1.25.019</t>
+  </si>
+  <si>
+    <t>1.25.025</t>
   </si>
   <si>
     <t>1.26.001</t>
@@ -139,6 +133,9 @@
     <t>1.30.001</t>
   </si>
   <si>
+    <t>1.30.002</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.01.001 </t>
   </si>
   <si>
@@ -178,6 +175,9 @@
     <t xml:space="preserve">2.02.101 </t>
   </si>
   <si>
+    <t xml:space="preserve">2.02.102 </t>
+  </si>
+  <si>
     <t xml:space="preserve">2.02.103 </t>
   </si>
   <si>
@@ -202,6 +202,9 @@
     <t xml:space="preserve">2.02.603 </t>
   </si>
   <si>
+    <t xml:space="preserve">2.02.604 </t>
+  </si>
+  <si>
     <t xml:space="preserve">2.02.610 </t>
   </si>
   <si>
@@ -214,9 +217,6 @@
     <t xml:space="preserve">2.03.004 </t>
   </si>
   <si>
-    <t xml:space="preserve">2.03.006 </t>
-  </si>
-  <si>
     <t xml:space="preserve">2.03.007 </t>
   </si>
   <si>
@@ -229,12 +229,15 @@
     <t xml:space="preserve">2.03.012 </t>
   </si>
   <si>
+    <t xml:space="preserve">2.03.014 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.03.015 </t>
+  </si>
+  <si>
     <t xml:space="preserve">2.03.016 </t>
   </si>
   <si>
-    <t xml:space="preserve">2.03.020 </t>
-  </si>
-  <si>
     <t xml:space="preserve">2.03.021 </t>
   </si>
   <si>
@@ -286,12 +289,12 @@
     <t xml:space="preserve">2.04.010 </t>
   </si>
   <si>
-    <t xml:space="preserve">2.04.019 </t>
-  </si>
-  <si>
     <t xml:space="preserve">2.04.020 </t>
   </si>
   <si>
+    <t xml:space="preserve">2.04.021 </t>
+  </si>
+  <si>
     <t xml:space="preserve">2.04.023 </t>
   </si>
   <si>
@@ -301,21 +304,18 @@
     <t xml:space="preserve">2.04.025 </t>
   </si>
   <si>
+    <t xml:space="preserve">2.05.004 </t>
+  </si>
+  <si>
     <t xml:space="preserve">2.05.008 </t>
   </si>
   <si>
     <t xml:space="preserve">2.06.003 </t>
   </si>
   <si>
-    <t xml:space="preserve">2.06.005 </t>
-  </si>
-  <si>
     <t xml:space="preserve">2.07.003 </t>
   </si>
   <si>
-    <t xml:space="preserve">2.07.004 </t>
-  </si>
-  <si>
     <t xml:space="preserve">2.12.101 </t>
   </si>
   <si>
@@ -328,12 +328,12 @@
     <t xml:space="preserve">2.12.201 </t>
   </si>
   <si>
-    <t xml:space="preserve">2.12.202 </t>
-  </si>
-  <si>
     <t xml:space="preserve">2.12.304 </t>
   </si>
   <si>
+    <t xml:space="preserve">2.14.004 </t>
+  </si>
+  <si>
     <t xml:space="preserve">2.17.001 </t>
   </si>
   <si>
@@ -346,22 +346,31 @@
     <t xml:space="preserve">2.30.102 </t>
   </si>
   <si>
-    <t>2.30.204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30.300 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30.301 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30.701 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31.200 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.31.303 </t>
+    <t xml:space="preserve">2.30.200 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30.203 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30.204 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30.401 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30.501 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30.601 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.30.801 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31.101 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.31.102 </t>
   </si>
   <si>
     <t xml:space="preserve">2.40.001 </t>
@@ -370,9 +379,6 @@
     <t xml:space="preserve">2.40.002 </t>
   </si>
   <si>
-    <t xml:space="preserve">2.40.003 </t>
-  </si>
-  <si>
     <t xml:space="preserve">2.40.005 </t>
   </si>
   <si>
@@ -382,6 +388,12 @@
     <t>Mensalidade</t>
   </si>
   <si>
+    <t>Mensalidade Inf 3 e 4</t>
+  </si>
+  <si>
+    <t>Mens. Integral 10h- Infan. 3 e 4</t>
+  </si>
+  <si>
     <t>Mensalidade Fund 1</t>
   </si>
   <si>
@@ -397,6 +409,9 @@
     <t>Mensalidade Fund 2</t>
   </si>
   <si>
+    <t>Matrícula Fund 2</t>
+  </si>
+  <si>
     <t>Matrícula Infantil - Isaac</t>
   </si>
   <si>
@@ -412,15 +427,9 @@
     <t>Ballet</t>
   </si>
   <si>
-    <t>Street Dance</t>
-  </si>
-  <si>
     <t>Futsal</t>
   </si>
   <si>
-    <t>Armário</t>
-  </si>
-  <si>
     <t>Natação</t>
   </si>
   <si>
@@ -430,49 +439,43 @@
     <t>Apostilas Anglo e complementares</t>
   </si>
   <si>
-    <t>Cópias para tarefas/trabalho</t>
-  </si>
-  <si>
     <t>Avaliação substitutiva</t>
   </si>
   <si>
     <t>Paradidático</t>
   </si>
   <si>
+    <t>Curso de Férias</t>
+  </si>
+  <si>
     <t>Revenda de lanches</t>
   </si>
   <si>
-    <t>Revenda Estante Mágica</t>
-  </si>
-  <si>
-    <t>Lembrancinha dia das mães</t>
+    <t>Revenda Almoço</t>
   </si>
   <si>
     <t>Passeios</t>
   </si>
   <si>
-    <t>Ingresso Festa Junina</t>
-  </si>
-  <si>
-    <t>Prenda Festa Junina</t>
-  </si>
-  <si>
-    <t>Cartela/Princ. Festa Junina</t>
-  </si>
-  <si>
-    <t>Bingo Festa Junina</t>
-  </si>
-  <si>
     <t>Formatura</t>
   </si>
   <si>
+    <t>Convites extras formatura</t>
+  </si>
+  <si>
+    <t>Foto/filmag. formatura</t>
+  </si>
+  <si>
     <t>Transporte Acampamento</t>
   </si>
   <si>
     <t>Mostra de Dança</t>
   </si>
   <si>
-    <t>Mostra Cultural</t>
+    <t>Foto/film. Mostra de Dança</t>
+  </si>
+  <si>
+    <t>Sonho Coletivo</t>
   </si>
   <si>
     <t>Multas a receber</t>
@@ -490,6 +493,9 @@
     <t>Acordo mensalidade</t>
   </si>
   <si>
+    <t>Devolução ou reembolso</t>
+  </si>
+  <si>
     <t>Água unidade 1</t>
   </si>
   <si>
@@ -529,6 +535,9 @@
     <t>Jornal</t>
   </si>
   <si>
+    <t>Materiais esportivos</t>
+  </si>
+  <si>
     <t>Material pedagógico</t>
   </si>
   <si>
@@ -550,6 +559,9 @@
     <t>Lanches e refeições</t>
   </si>
   <si>
+    <t>Farmácia</t>
+  </si>
+  <si>
     <t>Sieeesp</t>
   </si>
   <si>
@@ -562,9 +574,6 @@
     <t>Serviço de aulas de música</t>
   </si>
   <si>
-    <t>Outros serviços</t>
-  </si>
-  <si>
     <t>Serviço Arteterapia</t>
   </si>
   <si>
@@ -577,12 +586,15 @@
     <t>Serviços de consulta PF e PJ</t>
   </si>
   <si>
+    <t>Serviços advocatícios</t>
+  </si>
+  <si>
+    <t>Serviço de marcenaria</t>
+  </si>
+  <si>
     <t>Serviço propaganda e publicidade</t>
   </si>
   <si>
-    <t>Segurança unidade 3</t>
-  </si>
-  <si>
     <t>Serviços de medicina do trabalho</t>
   </si>
   <si>
@@ -634,12 +646,12 @@
     <t>Darf 561</t>
   </si>
   <si>
-    <t>Rescisão funcionário</t>
-  </si>
-  <si>
     <t>Sinpro</t>
   </si>
   <si>
+    <t>Saaesp</t>
+  </si>
+  <si>
     <t>Seguro funcionários</t>
   </si>
   <si>
@@ -649,21 +661,18 @@
     <t>Vale alimentação</t>
   </si>
   <si>
+    <t>Comissão de matrícula</t>
+  </si>
+  <si>
     <t>Uniforme funcionário</t>
   </si>
   <si>
     <t>Bolsa auxilio estagiários</t>
   </si>
   <si>
-    <t>Seguro estagiários</t>
-  </si>
-  <si>
     <t>Tarifas bancárias</t>
   </si>
   <si>
-    <t>Comissão cartão débito/crédito</t>
-  </si>
-  <si>
     <t>Iptu unidade 3</t>
   </si>
   <si>
@@ -676,12 +685,12 @@
     <t>Simples Nacional</t>
   </si>
   <si>
-    <t>IOF</t>
-  </si>
-  <si>
     <t>ISS s/ PJ</t>
   </si>
   <si>
+    <t>Despesa c/ Seguro educacional</t>
+  </si>
+  <si>
     <t>Despesas sócias</t>
   </si>
   <si>
@@ -694,31 +703,37 @@
     <t>Formatura 9ª ano</t>
   </si>
   <si>
+    <t>MOSTRA DE DANÇA</t>
+  </si>
+  <si>
+    <t>Desp. div. Mostra de Dança</t>
+  </si>
+  <si>
     <t>Teatro Mostra de Dança</t>
   </si>
   <si>
-    <t>FESTA JUNINA</t>
-  </si>
-  <si>
-    <t>Custos diversos festa junina</t>
-  </si>
-  <si>
-    <t>Custo Dia das Mães</t>
-  </si>
-  <si>
-    <t>REPASSE EVENTO 3º</t>
-  </si>
-  <si>
-    <t>Dia do autógrafo</t>
+    <t>Custo diversos Olimpiada</t>
+  </si>
+  <si>
+    <t>Custo acampamento</t>
+  </si>
+  <si>
+    <t>Passeios diversos</t>
+  </si>
+  <si>
+    <t>Mostra Cultural Uni 1</t>
+  </si>
+  <si>
+    <t>Confraternização funcionários</t>
+  </si>
+  <si>
+    <t>Brindes e presentes</t>
   </si>
   <si>
     <t>Sophia - Sistema de Gestão</t>
   </si>
   <si>
     <t>Móveis e utensílios</t>
-  </si>
-  <si>
-    <t>Imóvel Aquisição/Construção/Refo</t>
   </si>
   <si>
     <t>Empréstimo a pagar</t>
@@ -1082,7 +1097,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C119"/>
+  <dimension ref="A1:C121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1104,10 +1119,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C2">
-        <v>534.49</v>
+        <v>457.52</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1115,10 +1130,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C3">
-        <v>3795.2576</v>
+        <v>432.52</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1126,10 +1141,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C4">
-        <v>141.4324</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1137,10 +1152,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C5">
-        <v>19.8</v>
+        <v>4885.2888</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1148,10 +1163,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C6">
-        <v>302.04</v>
+        <v>465.308</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1159,10 +1174,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C7">
-        <v>3233.58</v>
+        <v>67.8</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1170,10 +1185,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C8">
-        <v>859.5</v>
+        <v>422.04</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1181,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C9">
-        <v>64538.59</v>
+        <v>32552.13</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1192,10 +1207,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C10">
-        <v>84944.27</v>
+        <v>1804.26</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1203,10 +1218,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C11">
-        <v>127416.4</v>
+        <v>6894.23</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1214,10 +1229,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C12">
-        <v>1681.73</v>
+        <v>66093.87</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1225,10 +1240,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C13">
-        <v>2960</v>
+        <v>15605.47</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1236,10 +1251,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C14">
-        <v>1211.25</v>
+        <v>216219.77</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1247,10 +1262,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C15">
-        <v>140</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1258,10 +1273,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C16">
-        <v>2569.33</v>
+        <v>593.75</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1269,10 +1284,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C17">
-        <v>475</v>
+        <v>1993.33</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1280,10 +1295,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C18">
-        <v>50922.79</v>
+        <v>570</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1291,10 +1306,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C19">
-        <v>30</v>
+        <v>61616.63</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1302,10 +1317,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C20">
-        <v>200</v>
+        <v>450</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1313,7 +1328,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C21">
         <v>1.38</v>
@@ -1324,10 +1339,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C22">
-        <v>5003.5</v>
+        <v>750</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1335,10 +1350,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C23">
-        <v>165</v>
+        <v>3992.5</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1346,10 +1361,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C24">
-        <v>377</v>
+        <v>251.75</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1357,10 +1372,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C25">
-        <v>6153.2</v>
+        <v>3729.5832</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1368,10 +1383,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C26">
-        <v>15982.54</v>
+        <v>4282.8</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1379,10 +1394,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C27">
-        <v>200</v>
+        <v>6634.5</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1390,10 +1405,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C28">
-        <v>600</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1401,10 +1416,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C29">
-        <v>1470</v>
+        <v>557.88</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1412,10 +1427,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C30">
-        <v>1338</v>
+        <v>1391.94</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1423,10 +1438,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C31">
-        <v>4777.4</v>
+        <v>924</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1434,10 +1449,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C32">
-        <v>422</v>
+        <v>5050</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1445,10 +1460,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C33">
-        <v>770</v>
+        <v>463.67</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1456,10 +1471,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C34">
-        <v>755</v>
+        <v>1139.53</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1467,10 +1482,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C35">
-        <v>723.5599999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1478,10 +1493,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C36">
-        <v>2066.74</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1489,10 +1504,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C37">
-        <v>4151.559999999999</v>
+        <v>893.3299999999999</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1500,10 +1515,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C38">
-        <v>7.21</v>
+        <v>141.98</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1511,10 +1526,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C39">
-        <v>1143.44</v>
+        <v>1198.67</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1522,10 +1537,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C40">
-        <v>609.03</v>
+        <v>1262.96</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1533,10 +1548,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C41">
-        <v>304.51</v>
+        <v>1147.55</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1544,10 +1559,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C42">
-        <v>2889.59</v>
+        <v>3541.25</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1555,10 +1570,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C43">
-        <v>1532.7</v>
+        <v>759.87</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1566,10 +1581,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C44">
-        <v>766.29</v>
+        <v>745.9299999999999</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1577,10 +1592,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C45">
-        <v>604.54</v>
+        <v>303.68</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1588,10 +1603,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C46">
-        <v>304.49</v>
+        <v>522.76</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1599,10 +1614,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C47">
-        <v>591.55</v>
+        <v>4531.94</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1610,10 +1625,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C48">
-        <v>4519.29</v>
+        <v>280.25</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1621,10 +1636,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C49">
-        <v>275.44</v>
+        <v>291</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1632,10 +1647,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C50">
-        <v>417.58</v>
+        <v>216.47</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1643,10 +1658,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C51">
-        <v>210.54</v>
+        <v>147.9</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1654,10 +1669,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C52">
-        <v>136.9</v>
+        <v>984.9200000000001</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1665,10 +1680,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C53">
-        <v>47280.2</v>
+        <v>41721.21</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1676,10 +1691,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C54">
-        <v>1717.62</v>
+        <v>2581.82</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1687,10 +1702,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C55">
-        <v>1406.51</v>
+        <v>2590.93</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1698,10 +1713,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C56">
-        <v>1409.49</v>
+        <v>1552.1</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1709,10 +1724,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C57">
-        <v>498.15</v>
+        <v>1113.44</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1720,10 +1735,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C58">
-        <v>5543.74</v>
+        <v>2864.8</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1731,10 +1746,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C59">
-        <v>47.81</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1742,10 +1757,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C60">
-        <v>58.34</v>
+        <v>205</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1753,10 +1768,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C61">
-        <v>759</v>
+        <v>33.98</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1764,10 +1779,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C62">
-        <v>353.18</v>
+        <v>759</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1775,10 +1790,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C63">
-        <v>182.39</v>
+        <v>672.86</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1786,10 +1801,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C64">
-        <v>900</v>
+        <v>182.39</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1797,10 +1812,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C65">
-        <v>350</v>
+        <v>900</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1808,10 +1823,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C66">
-        <v>1978.74</v>
+        <v>1853.61</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1819,10 +1834,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C67">
-        <v>3237</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1830,10 +1845,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C68">
-        <v>2222</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1841,10 +1856,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C69">
-        <v>474.99</v>
+        <v>522.6799999999999</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1852,10 +1867,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C70">
-        <v>2996.89</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1863,10 +1878,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C71">
-        <v>80</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1874,10 +1889,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C72">
-        <v>799</v>
+        <v>2663.4</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1885,10 +1900,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C73">
-        <v>352.8</v>
+        <v>2171.95</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1896,10 +1911,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C74">
-        <v>3239.36</v>
+        <v>378</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1907,10 +1922,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C75">
-        <v>4435.83</v>
+        <v>3239.36</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1918,10 +1933,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C76">
-        <v>6998.71</v>
+        <v>4369.96</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1929,10 +1944,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C77">
-        <v>2667.25</v>
+        <v>6998.71</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1940,10 +1955,10 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C78">
-        <v>1636.46</v>
+        <v>2667.25</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1951,10 +1966,10 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C79">
-        <v>6862.17</v>
+        <v>1636.46</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1962,10 +1977,10 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C80">
-        <v>2310</v>
+        <v>5634.9</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1973,10 +1988,10 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C81">
-        <v>111.92</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1984,10 +1999,10 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C82">
-        <v>407.25</v>
+        <v>129.32</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1995,10 +2010,10 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C83">
-        <v>70649.50999999999</v>
+        <v>380</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2006,10 +2021,10 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C84">
-        <v>60473.39</v>
+        <v>52637.77</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2017,10 +2032,10 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C85">
-        <v>9217.23</v>
+        <v>78823.90000000001</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2028,10 +2043,10 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>13558.66</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2039,10 +2054,10 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C87">
-        <v>3213.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2050,10 +2065,10 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C88">
-        <v>21133.46</v>
+        <v>4838.84</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2061,10 +2076,10 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C89">
-        <v>4730.059999999999</v>
+        <v>20162.3</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2072,10 +2087,10 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C90">
-        <v>392.91</v>
+        <v>351.46</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2083,10 +2098,10 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C91">
-        <v>302.95</v>
+        <v>723.52</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2094,10 +2109,10 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C92">
-        <v>736.87</v>
+        <v>413.57</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2105,10 +2120,10 @@
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C93">
-        <v>8736.940000000001</v>
+        <v>544.46</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2116,10 +2131,10 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C94">
-        <v>517.03</v>
+        <v>8930.98</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2127,10 +2142,10 @@
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C95">
-        <v>12012.81</v>
+        <v>820</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2138,10 +2153,10 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C96">
-        <v>70.29000000000001</v>
+        <v>813.7099999999999</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2149,10 +2164,10 @@
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C97">
-        <v>308.26</v>
+        <v>8741.900000000001</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2160,10 +2175,10 @@
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C98">
-        <v>38</v>
+        <v>673.46</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2171,7 +2186,7 @@
         <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C99">
         <v>575.7</v>
@@ -2182,7 +2197,7 @@
         <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C100">
         <v>2035.67</v>
@@ -2193,7 +2208,7 @@
         <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C101">
         <v>2603.42</v>
@@ -2204,10 +2219,10 @@
         <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C102">
-        <v>29042.81</v>
+        <v>29402.95</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2215,10 +2230,10 @@
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C103">
-        <v>240.82</v>
+        <v>10.92</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2226,10 +2241,10 @@
         <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C104">
-        <v>10.92</v>
+        <v>782.1799999999999</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2237,10 +2252,10 @@
         <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C105">
-        <v>20778</v>
+        <v>21763.02</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2248,10 +2263,10 @@
         <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C106">
-        <v>1660</v>
+        <v>1934.81</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2259,10 +2274,10 @@
         <v>108</v>
       </c>
       <c r="B107" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C107">
-        <v>1500</v>
+        <v>5694.14</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2270,10 +2285,10 @@
         <v>109</v>
       </c>
       <c r="B108" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C108">
-        <v>1250</v>
+        <v>436.7</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2281,10 +2296,10 @@
         <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C109">
-        <v>150</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2292,10 +2307,10 @@
         <v>111</v>
       </c>
       <c r="B110" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C110">
-        <v>11697</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2303,10 +2318,10 @@
         <v>112</v>
       </c>
       <c r="B111" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C111">
-        <v>4150.440000000001</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2314,10 +2329,10 @@
         <v>113</v>
       </c>
       <c r="B112" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C112">
-        <v>1546.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2325,10 +2340,10 @@
         <v>114</v>
       </c>
       <c r="B113" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C113">
-        <v>348.8</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2336,10 +2351,10 @@
         <v>115</v>
       </c>
       <c r="B114" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C114">
-        <v>1315</v>
+        <v>8892</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2347,10 +2362,10 @@
         <v>116</v>
       </c>
       <c r="B115" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C115">
-        <v>1623.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2358,10 +2373,10 @@
         <v>117</v>
       </c>
       <c r="B116" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C116">
-        <v>3485.15</v>
+        <v>1312.5</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2369,10 +2384,10 @@
         <v>118</v>
       </c>
       <c r="B117" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C117">
-        <v>6685.83</v>
+        <v>743.34</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2380,10 +2395,10 @@
         <v>119</v>
       </c>
       <c r="B118" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C118">
-        <v>3151.56</v>
+        <v>1709.42</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2391,10 +2406,32 @@
         <v>120</v>
       </c>
       <c r="B119" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C119">
-        <v>8291.389999999999</v>
+        <v>920.66</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120" t="s">
+        <v>240</v>
+      </c>
+      <c r="C120">
+        <v>5465.2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121" t="s">
+        <v>241</v>
+      </c>
+      <c r="C121">
+        <v>3594.58</v>
       </c>
     </row>
   </sheetData>
